--- a/Project 5 product backlog.xlsx
+++ b/Project 5 product backlog.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\PERSONALCLOUD\mnewbery\Dandelion_at_AFP\Project 5 Django\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/052dbf5c695e506d/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD20A8D-81B9-447B-8EBD-23BBD3F33763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="8_{9830E507-927E-430A-A37D-81F84002963E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{604D5CC3-FF5A-4B8A-AF75-E401C3B397ED}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{4A94BD5F-6C43-48EC-AE1E-7D203F83C41D}"/>
+    <workbookView xWindow="-110" yWindow="14290" windowWidth="25820" windowHeight="15500" xr2:uid="{4A94BD5F-6C43-48EC-AE1E-7D203F83C41D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="1" r:id="rId1"/>
+    <sheet name="Issues" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="46">
   <si>
     <t xml:space="preserve">User story: </t>
   </si>
@@ -93,16 +94,107 @@
   </si>
   <si>
     <t>View a chart for TWO locations but only one value such as wind speed. The data will appear on one chart</t>
+  </si>
+  <si>
+    <t>A1</t>
+  </si>
+  <si>
+    <t>A2</t>
+  </si>
+  <si>
+    <t>A3</t>
+  </si>
+  <si>
+    <t>A4</t>
+  </si>
+  <si>
+    <t>U1</t>
+  </si>
+  <si>
+    <t>U2</t>
+  </si>
+  <si>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
+    <t>U6</t>
+  </si>
+  <si>
+    <t>U7</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>D2</t>
+  </si>
+  <si>
+    <t>Ta</t>
+  </si>
+  <si>
+    <t>User Story</t>
+  </si>
+  <si>
+    <t>GitHub Task</t>
+  </si>
+  <si>
+    <t>Save observations for test data</t>
+  </si>
+  <si>
+    <t>User Story Text</t>
+  </si>
+  <si>
+    <t>Task text</t>
+  </si>
+  <si>
+    <t>Author admin web page</t>
+  </si>
+  <si>
+    <t>User</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>Force immediate data collection</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extend the admin web page to
+Force immediate JSON collection; and
+Restart the web server </t>
+  </si>
+  <si>
+    <t>D3</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Create Django master HTML template</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -125,13 +217,22 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -145,6 +246,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -447,16 +552,16 @@
   <dimension ref="A5:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.54296875" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>0</v>
       </c>
@@ -464,32 +569,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
       <c r="C7" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
       <c r="C8" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
       <c r="C9" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -497,42 +614,63 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
       <c r="C13" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
       <c r="C14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
       <c r="C15" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
       <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>27</v>
+      </c>
       <c r="C17" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>28</v>
+      </c>
       <c r="C18" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
       <c r="C19" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>9</v>
       </c>
@@ -540,12 +678,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
       <c r="C22" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>31</v>
+      </c>
       <c r="C23" t="s">
         <v>15</v>
       </c>
@@ -553,4 +697,115 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42E0A19A-3D43-41BD-98F8-B861586F2F0C}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="20" style="1" customWidth="1"/>
+    <col min="5" max="6" width="21.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" customWidth="1"/>
+    <col min="8" max="8" width="48.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F2" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="s">
+        <v>36</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="D7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" display="https://github.com/mrcrowley42/Project5/issues/4" xr:uid="{CADB9B37-B679-48E8-86E7-EC6F37F07BF4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
 </file>